--- a/Packet/PacketData/Chat.xlsx
+++ b/Packet/PacketData/Chat.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -41,7 +41,25 @@
     <t xml:space="preserve">PacketBase</t>
   </si>
   <si>
+    <t xml:space="preserve">$ENUM$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ChatType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Say</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shout</t>
+  </si>
+  <si>
     <t xml:space="preserve">$MEMBER$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">u8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type</t>
   </si>
   <si>
     <t xml:space="preserve">std::string</t>
@@ -166,10 +184,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -210,8 +228,41 @@
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="0" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -248,7 +299,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -256,7 +307,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -269,24 +320,24 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Packet/PacketData/Chat.xlsx
+++ b/Packet/PacketData/Chat.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="チャット送信" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="20">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -72,6 +72,12 @@
   </si>
   <si>
     <t xml:space="preserve">ReceiveChat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">u32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uuid</t>
   </si>
   <si>
     <t xml:space="preserve">Name</t>
@@ -186,7 +192,7 @@
   </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -281,10 +287,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -323,20 +329,31 @@
         <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="0" t="s">
+      <c r="C5" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C6" s="0" t="s">
         <v>14</v>
       </c>
     </row>

--- a/Packet/PacketData/Chat.xlsx
+++ b/Packet/PacketData/Chat.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="チャット送信" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -62,12 +62,18 @@
     <t xml:space="preserve">Type</t>
   </si>
   <si>
+    <t xml:space="preserve">タイプ</t>
+  </si>
+  <si>
     <t xml:space="preserve">std::string</t>
   </si>
   <si>
     <t xml:space="preserve">Message</t>
   </si>
   <si>
+    <t xml:space="preserve">メッセージ</t>
+  </si>
+  <si>
     <t xml:space="preserve">PacketReceiveChat</t>
   </si>
   <si>
@@ -80,7 +86,13 @@
     <t xml:space="preserve">Uuid</t>
   </si>
   <si>
+    <t xml:space="preserve">ＵＵＩＤ</t>
+  </si>
+  <si>
     <t xml:space="preserve">Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">キャラクタ名</t>
   </si>
 </sst>
 </file>
@@ -190,10 +202,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -237,6 +249,9 @@
       <c r="C4" s="0" t="s">
         <v>8</v>
       </c>
+      <c r="D4" s="0" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
@@ -248,6 +263,9 @@
       <c r="C5" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="D5" s="0" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
@@ -259,16 +277,22 @@
       <c r="C6" s="0" t="s">
         <v>12</v>
       </c>
+      <c r="D6" s="0" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -287,10 +311,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -305,7 +329,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -313,7 +337,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -329,10 +353,13 @@
         <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -340,10 +367,13 @@
         <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -351,10 +381,13 @@
         <v>10</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Packet/PacketData/Chat.xlsx
+++ b/Packet/PacketData/Chat.xlsx
@@ -5,11 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="チャット送信" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="チャット受信" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="ＧＭメッセージ受信" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="26">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -93,6 +94,12 @@
   </si>
   <si>
     <t xml:space="preserve">キャラクタ名</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PacketReceiveGMMessage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ReceiveGMMessage</t>
   </si>
 </sst>
 </file>
@@ -204,7 +211,7 @@
   </sheetPr>
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -399,4 +406,71 @@
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="12.83"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>